--- a/diaries/diary-thuc-nguyen.xlsx
+++ b/diaries/diary-thuc-nguyen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -153,6 +153,70 @@
     <t>The articles were interesting and provided more perspectives on how to read code. Something that I was found interesting and must remind myself to stress is hidden state machines because I used to get by with flags.  I felt like this activity helped tie together what we learned in class about reading code.</t>
   </si>
   <si>
+    <t>I wanted to underestand what mental models were and what and how to use a UML diagram.</t>
+  </si>
+  <si>
+    <t>1) Understood what mental models are and how we use them
+2) What UML diagrams are, its usages, and how they can help look at the architecture of the code, its relationships, and its flow</t>
+  </si>
+  <si>
+    <t>I learned that we use mental models as a way to represent how we perceive things to work in the real world. The importance of mental models is evident for users who act upon a system based on what they understand about past software they have used. Menal models also affect developers because they should also consider other developers' mental models when forming their software system. I learned that mental models have limitations as well. 
+In regards to UML diagrams, they are visualized with boxes as classes or interfaces, in which each box contains variables, getters, and setters. The lines portray the relationships of each class to one another.</t>
+  </si>
+  <si>
+    <t>The activity gave me more information on what people use to read and understand code, with mental models and UML diagrams being examples. The mood was enlightening.</t>
+  </si>
+  <si>
+    <t>Readings - Reading code (diagrams and mental models)</t>
+  </si>
+  <si>
+    <t>1) Ways in which people externalize their mental models and visualize representations of how they read code
+2) Useful techniques to help externalize</t>
+  </si>
+  <si>
+    <t>I learned that one way to read code is to write out, in acronyms even, the constructors and/or methods of a class in a simplistic form to see what it roughly does. Strategies for working with legacy code include trying to create a mapping or a data model and to beware for and find bugs to fix. Try to communicate with any stakeholders but also future developers that will look at your code by providing better documentation or writing down the representation of the system. Keep a log, keep in mind business needs, and leave the code in better shape.</t>
+  </si>
+  <si>
+    <t>The activity was okay. It elaborated more on last week's readings.</t>
+  </si>
+  <si>
+    <t>3:00pm - 5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project
+Printing out a UML diagram of the project
+</t>
+  </si>
+  <si>
+    <t>1) Was able to print out the UML diagram, which was around 20 pages. I loaded the UML on the entire runelite folder, and although it loaded properly, Deon suggested loading only the UML diagram for the client package since that's our primary focus.</t>
+  </si>
+  <si>
+    <t>It was, according to Deon, tough to print out the diagram in png, because it was overall about 60mb of memory, and this was compressed. It took a lot of ram for him to load the image on gimp, which would be impossible on my own laptop.</t>
+  </si>
+  <si>
+    <t>Activity was tough because without Deon's help and his access to a pretty strong computer, with a lot of ram, we would probably have had a harder time than we did.</t>
+  </si>
+  <si>
+    <t>9:00pm - 11:00pm</t>
+  </si>
+  <si>
+    <t>Project
+- Highlight 2 features in diagram where they are implemented
+- Use templates
+- Complete a writeup</t>
+  </si>
+  <si>
+    <t>1) Highlighted the 2 features in the diagram
+2) Used the templates to help us navigate through the code
+3) Completed the writeup</t>
+  </si>
+  <si>
+    <t>We had to use the UML diagram generated on IntelliJ first to help us find where the classes are before highlighting it on the printed diagram. The 2 features we chose were the ScreenMarker feature of the client which allowed players to mark on the screen boxes of a customizable color to help them mark the exact positions of things. The other feature was the metronome feature which was a supporting timing feature. We used the templates to write down where we've been in the code and where to go, and although it was very tedious, it helped us navigate through the files under the screenmarker and metronome plugin packages. We were able to understand more about what the code did which helped us write more detailed information on the writeup.</t>
+  </si>
+  <si>
+    <t>Overall, the activity was a bit exhausting with the use of the templates, but I understand how it can be helpful, since we are thinking at every step, and making decisions on where to go from where we are.</t>
+  </si>
+  <si>
     <t>&lt;what day?&gt;</t>
   </si>
   <si>
@@ -178,12 +242,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="h:mm am/pm"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -200,15 +265,18 @@
       <b/>
       <sz val="12.0"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i/>
       <sz val="12.0"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i/>
@@ -220,6 +288,23 @@
       <b/>
       <sz val="12.0"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i/>
@@ -230,10 +315,6 @@
       <i/>
       <sz val="11.0"/>
       <color rgb="FF006100"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -285,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -321,7 +402,7 @@
     <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -342,8 +423,23 @@
     <xf borderId="4" fillId="4" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -723,11 +819,11 @@
       <c r="G8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="18">
@@ -775,216 +871,212 @@
       <c r="G10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="20">
+        <v>43853.0</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="F11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="G11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="20">
+        <v>43857.0</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="E12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>36</v>
+      <c r="G12" s="23" t="s">
+        <v>43</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>37</v>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="20">
+        <v>43859.0</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
+      <c r="B13" s="21" t="s">
+        <v>44</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>39</v>
+      <c r="C13" s="21" t="s">
+        <v>23</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
+      <c r="D13" s="21" t="s">
+        <v>45</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>41</v>
+      <c r="E13" s="21" t="s">
+        <v>46</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>42</v>
+      <c r="F13" s="21" t="s">
+        <v>47</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>36</v>
+      <c r="G13" s="23" t="s">
+        <v>48</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>37</v>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="25">
+        <v>43859.0</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
+      <c r="B14" s="21" t="s">
+        <v>49</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>39</v>
+      <c r="C14" s="21" t="s">
+        <v>23</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>40</v>
+      <c r="D14" s="21" t="s">
+        <v>50</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>41</v>
+      <c r="E14" s="21" t="s">
+        <v>51</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>42</v>
+      <c r="F14" s="21" t="s">
+        <v>52</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>36</v>
+      <c r="G14" s="23" t="s">
+        <v>53</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>42</v>
+      <c r="G15" s="26" t="s">
+        <v>60</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>42</v>
+      <c r="G16" s="26" t="s">
+        <v>60</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>42</v>
+      <c r="G17" s="26" t="s">
+        <v>60</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -998,7 +1090,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -1012,7 +1104,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -1026,7 +1118,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -1040,7 +1132,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -1054,7 +1146,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1068,7 +1160,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -1082,7 +1174,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -1096,7 +1188,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -1110,7 +1202,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -1124,7 +1216,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
@@ -1138,7 +1230,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -1152,7 +1244,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -1166,7 +1258,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -1180,7 +1272,7 @@
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -1194,7 +1286,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -1208,7 +1300,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
@@ -1222,7 +1314,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -1236,7 +1328,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
@@ -1250,7 +1342,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -1264,7 +1356,7 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -1278,7 +1370,7 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -1292,7 +1384,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -1306,7 +1398,7 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
@@ -1320,7 +1412,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
@@ -1334,7 +1426,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -1348,7 +1440,7 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -1362,7 +1454,7 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -1376,7 +1468,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -1390,7 +1482,7 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -1404,7 +1496,7 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="21"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
@@ -1418,7 +1510,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -1432,7 +1524,7 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
@@ -1446,7 +1538,7 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -1460,7 +1552,7 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -1474,7 +1566,7 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -1488,7 +1580,7 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -1502,7 +1594,7 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -1516,7 +1608,7 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -1530,7 +1622,7 @@
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="21"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -1544,7 +1636,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -1558,7 +1650,7 @@
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="26"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -1572,7 +1664,7 @@
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -1586,7 +1678,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="26"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -1600,7 +1692,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="26"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -1614,7 +1706,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="21"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -1628,7 +1720,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -1642,7 +1734,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -1656,7 +1748,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="21"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -1670,7 +1762,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -1684,7 +1776,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
@@ -1698,7 +1790,7 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
@@ -1712,7 +1804,7 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="26"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
@@ -1726,7 +1818,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="26"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
@@ -1740,7 +1832,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="26"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -1754,7 +1846,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="26"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -1768,7 +1860,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="26"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
@@ -1782,7 +1874,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="26"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
@@ -1796,7 +1888,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="26"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
@@ -1810,7 +1902,7 @@
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="26"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
@@ -1824,7 +1916,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="21"/>
+      <c r="G78" s="26"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -1838,7 +1930,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="26"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
@@ -1852,7 +1944,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="21"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
@@ -1866,7 +1958,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="21"/>
+      <c r="G81" s="26"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
@@ -1880,7 +1972,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -1894,7 +1986,7 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="26"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -1908,7 +2000,7 @@
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="21"/>
+      <c r="G84" s="26"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
@@ -1922,7 +2014,7 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="21"/>
+      <c r="G85" s="26"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -1936,7 +2028,7 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="21"/>
+      <c r="G86" s="26"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
@@ -1950,7 +2042,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
-      <c r="G87" s="21"/>
+      <c r="G87" s="26"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
@@ -1964,7 +2056,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
-      <c r="G88" s="21"/>
+      <c r="G88" s="26"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -1978,7 +2070,7 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="26"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
@@ -1992,7 +2084,7 @@
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
-      <c r="G90" s="21"/>
+      <c r="G90" s="26"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
@@ -2006,7 +2098,7 @@
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="26"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
@@ -2020,7 +2112,7 @@
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
-      <c r="G92" s="21"/>
+      <c r="G92" s="26"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -2034,7 +2126,7 @@
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="26"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -2048,7 +2140,7 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
-      <c r="G94" s="21"/>
+      <c r="G94" s="26"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -2062,7 +2154,7 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="26"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -2076,7 +2168,7 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="21"/>
+      <c r="G96" s="26"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
@@ -2090,7 +2182,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="21"/>
+      <c r="G97" s="26"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
@@ -2104,7 +2196,7 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="21"/>
+      <c r="G98" s="26"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
@@ -2118,7 +2210,7 @@
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="21"/>
+      <c r="G99" s="26"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
@@ -2132,7 +2224,7 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
-      <c r="G100" s="21"/>
+      <c r="G100" s="26"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
@@ -2146,7 +2238,7 @@
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
-      <c r="G101" s="21"/>
+      <c r="G101" s="26"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
@@ -2160,7 +2252,7 @@
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
-      <c r="G102" s="21"/>
+      <c r="G102" s="26"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
@@ -2174,7 +2266,7 @@
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
-      <c r="G103" s="21"/>
+      <c r="G103" s="26"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -2188,7 +2280,7 @@
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="21"/>
+      <c r="G104" s="26"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
@@ -2202,7 +2294,7 @@
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
-      <c r="G105" s="21"/>
+      <c r="G105" s="26"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
@@ -2216,7 +2308,7 @@
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
-      <c r="G106" s="21"/>
+      <c r="G106" s="26"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -2230,7 +2322,7 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="21"/>
+      <c r="G107" s="26"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
@@ -2244,7 +2336,7 @@
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="21"/>
+      <c r="G108" s="26"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
@@ -2258,7 +2350,7 @@
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="21"/>
+      <c r="G109" s="26"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
@@ -2272,7 +2364,7 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="21"/>
+      <c r="G110" s="26"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
@@ -2286,7 +2378,7 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="21"/>
+      <c r="G111" s="26"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -2300,7 +2392,7 @@
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="21"/>
+      <c r="G112" s="26"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -2314,7 +2406,7 @@
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="21"/>
+      <c r="G113" s="26"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
@@ -2328,7 +2420,7 @@
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="21"/>
+      <c r="G114" s="26"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
@@ -2342,7 +2434,7 @@
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="21"/>
+      <c r="G115" s="26"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
@@ -2356,7 +2448,7 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="21"/>
+      <c r="G116" s="26"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
@@ -2370,7 +2462,7 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="21"/>
+      <c r="G117" s="26"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -2384,7 +2476,7 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="21"/>
+      <c r="G118" s="26"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
@@ -2398,7 +2490,7 @@
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="21"/>
+      <c r="G119" s="26"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -2412,7 +2504,7 @@
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
-      <c r="G120" s="21"/>
+      <c r="G120" s="26"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
@@ -2426,7 +2518,7 @@
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="21"/>
+      <c r="G121" s="26"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -2440,7 +2532,7 @@
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="21"/>
+      <c r="G122" s="26"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>

--- a/diaries/diary-thuc-nguyen.xlsx
+++ b/diaries/diary-thuc-nguyen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -267,6 +267,22 @@
   </si>
   <si>
     <t>The activity as a whole wasn't too exhausting. Since I learned how to look through and read code more quickly using IntelliJ, searching for relevant classes and files wasn't difficult. What was difficult was choosing which features were essential to the system, because this system's purpose is solely to provide plugins that users can use when they play Runescape. The entitrety of the plugins made up the system, with each plugin independent of each other and within their own packages. We decided to choose the PluginManager because that class handles all existing as well as new plugins and the IdleNotifierPlugin as a core plugin because it was essential the gameplay.</t>
+  </si>
+  <si>
+    <t>Understand what was mental simulation.
+The next 3 key expert practicies.
+How do we use mental simulation with code</t>
+  </si>
+  <si>
+    <t>1) Learned what mental simulation was
+2) Learned that we use diagrams and concrete values as we step through code
+3) Learned to be skeptical of the code, of others, and of ourselves.</t>
+  </si>
+  <si>
+    <t>I learned that mental simulation was our way of imagining how the code works, and stepping through the code, thinking of the probably results without actually running the program. This was a way for us to tackle being skeptical of our code, since experts usually use print statements or debuggers to make sure that the value of something is actually that value. However, they simulate going through the code without running the program first. It is also helpful to draw diagrams and possible if-else situations, and stepping through it, simulating it. We have to ask ourselves what we are unsure of after every line of code.</t>
+  </si>
+  <si>
+    <t>The activity gave another interesting perspective on how we deal with reading code, especially one within a large system that we have to understand. Like the mental models lecture, I felt that this lecture was also very helpful.</t>
   </si>
   <si>
     <t>&lt;what day?&gt;</t>
@@ -418,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -483,6 +499,12 @@
     </xf>
     <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1109,26 +1131,24 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="23">
+        <v>43867.0</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="E18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="F18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="G18" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1138,25 +1158,25 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -1166,25 +1186,25 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1194,25 +1214,25 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>

--- a/diaries/diary-thuc-nguyen.xlsx
+++ b/diaries/diary-thuc-nguyen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -283,6 +283,40 @@
   </si>
   <si>
     <t>The activity gave another interesting perspective on how we deal with reading code, especially one within a large system that we have to understand. Like the mental models lecture, I felt that this lecture was also very helpful.</t>
+  </si>
+  <si>
+    <t>Review the class survey
+Understand the next key expert practices
+What are stakeholders? The functionality of our system? The key developers?</t>
+  </si>
+  <si>
+    <t>1) Future topics to cover in the class, feedback on the most and least useful topics. 
+2) Key Expert Practices
+    #7. Prioritize among stakeholders
+    #8. Move along levels of abstraction
+    #9. Do something else
+3) Stakeholders, essential functional and essential non-functional aspects of the system, and key developers such as core maintainers, team members, developers, testers, triagers, documentation writers</t>
+  </si>
+  <si>
+    <t>It was interesting to step away from code and look at other aspects of our system, in a higher level view. I felt that we learned how to read code very well from the past lectures, and that we were able to find the core or essence of our system, but not about who made this project, and the people that were interested in its growth.</t>
+  </si>
+  <si>
+    <t>Satisfied, and enlightened to take pm a different perspective about the system.</t>
+  </si>
+  <si>
+    <t>8:00pm - 11:00pm</t>
+  </si>
+  <si>
+    <t>Learn and share our research on the stakeholders, functionality, key developers, and the issues of our system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found and described the stakeholders, functionality, key developers, and 5 issues that we can potentially solve. </t>
+  </si>
+  <si>
+    <t>It was surprising to find that our system was solely lead by a single developer, Adam. He does have a team of core maintainers however. Our system also had more stakeholders than I had expected, including the people of Venezuela how play the game even today, in order to convert in-game currency to real money because their economy's financial infrastructure is hyperinflated. The way we went about searching for this information was very straightforward. We looked through Github, the Runelite website, Jagex's website, google, and so on.</t>
+  </si>
+  <si>
+    <t>Surprised especially because it was the first time I read that a game and client had an impact on people's livelihoods.</t>
   </si>
   <si>
     <t>&lt;what day?&gt;</t>
@@ -1157,26 +1191,24 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="23">
+        <v>43874.0</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="E19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="F19" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="G19" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -1185,26 +1217,26 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="A20" s="23">
+        <v>43880.0</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="C20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="E20" s="21" t="s">
         <v>77</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -1214,25 +1246,25 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>

--- a/diaries/diary-thuc-nguyen.xlsx
+++ b/diaries/diary-thuc-nguyen.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miaSqd+hTAuC4ADj+cPChKw2wWYdw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgbS1VuJFXjENzhafBAfgA8xuH9Ng=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -317,6 +317,42 @@
   </si>
   <si>
     <t>Surprised especially because it was the first time I read that a game and client had an impact on people's livelihoods.</t>
+  </si>
+  <si>
+    <t>5:00pm-8:00pm</t>
+  </si>
+  <si>
+    <t>Learn more key expert practices, the architecture of a system and how we can reverse engineer the design, and that made up the social context of a system</t>
+  </si>
+  <si>
+    <t>Learned 3 more expert practices: know how things work, address knowledge deficiencies, and design elegant solutions. Also learned about how difficult it can be to come up with an architecture for a system especially when documentation isn't available, or the system is very large and unorganized.</t>
+  </si>
+  <si>
+    <t>I understood that the architecture of a system is really important to have, emphaszied in 264P. I wasn't so surprised that a lot of groups drew different achitectural models for JPacman. Since everyone had their own mental model of how the architecture can be illustrated, it was bound to be different.</t>
+  </si>
+  <si>
+    <t>Again, it was interesting to see different perspectives not only on how we read code, but how we read the entire code base to formulate a diagram for the architecture of a system.</t>
+  </si>
+  <si>
+    <t>10:00pm - 4:00am</t>
+  </si>
+  <si>
+    <t>Find an existing model for Runelite's architecture
+Recover the architecture somehow
+Define the social context and state of the project
+Find 5 interesting pull requests and 5 interesting issues</t>
+  </si>
+  <si>
+    <t>Obtained an outdated diagram for the architecture of Runelite
+Recovered an as-implemented diagram of Runelite using tools suggested by Adam, the creator
+Researched and wrote about the social context of Runelite
+Found 5 interesting pull requests and 5 interesting issues</t>
+  </si>
+  <si>
+    <t>I am glad Deon was very knowledgeable about Runelite and the system and more importantly, that he was able to talk to Adam about the architecture. It really helped us a lot and Adam pointed us in the right path in recovering the architecture. Also, I didn't know about these "meta" aspects of our project like the state it was in and more interestingly, that more people use the Runelite client than they play Runescape.</t>
+  </si>
+  <si>
+    <t>I was shocked in a good way. To learn more about the things outside of our project, the team, the state of it, and not just the code and the functionality of the system made me appreciate Runelite even more.</t>
   </si>
   <si>
     <t>&lt;what day?&gt;</t>
@@ -468,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -540,7 +576,10 @@
     <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,32 +1284,170 @@
       <c r="L20" s="17"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23">
+        <v>43881.0</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="E21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="F21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="G21" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="23">
+        <v>43885.0</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-thuc-nguyen.xlsx
+++ b/diaries/diary-thuc-nguyen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -63,7 +63,8 @@
     <t>5:00pm - 8:00pm</t>
   </si>
   <si>
-    <t>I wanted to be introduced to what reverse engineering was and how we would go about defining or modeling a system so that we understand it and build off of it.</t>
+    <t>Introduction to reverse engineering. 
+How would we go about defining or modeling a system so that we understand it and build off of it?</t>
   </si>
   <si>
     <t>1) Code reading in terms of its easiness and difficulty 
@@ -71,7 +72,7 @@
 3) What reverse engineering was all about.</t>
   </si>
   <si>
-    <t>I learned more elaborately about what made it is easy or difficult to read code including reusability, documentation, formatting and comments. I also learned about git and subversion, including how to import a project from a git url and subversion url, and then building the project to make sure that the code compiles successfully.</t>
+    <t>I learned more about what made it is easy or difficult to read code including reusability, documentation, formatting and comments. This was an out-of-the-box moment because I never really thought about how I read code myself. Also learned about git and subversion, including how to import a project from a git url and subversion url.</t>
   </si>
   <si>
     <t>The activity was fun and inclusive. It was nice to work on small brainstorming tasks with classmates.</t>
@@ -85,13 +86,7 @@
 3) Looked at JPacMan project, fixed bugs, saw importance of variable names and assets and resources.</t>
   </si>
   <si>
-    <t>I learned the different types of comprehension techniques, including 
-- Top-down which is to look at how the project is constructed widely, and to then look down at its parts to understand the code base. 
-- Bottom-up, which is to look at chunks of the code directly, and then build our understanding of the code towards higher abstraction layers. 
-- Systematic comprehension, which was to look at the entire source code in detail and follow the control flow in the program. 
-- Opportunistic comprehension, which was to look at specific, related parts of the code. For example, to find the bug, fix it, and leave the rest of the source code alone.
-Information foraging theory is what we use to minimize the steps we take to learn about the code, and we can do this using hypotheses based on past experiences, and inferences which adapts past experiences to new ones.
-For JPacMan, we had to use search features and file/class names when trying to identify and fix bugs, as well as taking note of the assets and resources like sprites and image files on top of the code.</t>
+    <t>I didn't know comprehending code could be broken down into levels and types of usages. The activity for pacman was very helpful, because it made me use these strategies to try to understand more thoroughly about a system we were never exposed to.</t>
   </si>
   <si>
     <t>The actvity was thought-provoking. The speaker that came in, Ping, was very informative and his experiences at Google as a project manager game me more insight on how the industry works. Also tech debt, delay loading, and progressive loading.</t>
@@ -106,7 +101,7 @@
     <t>We decided on Runelite, an open-source client for Runescape (old)</t>
   </si>
   <si>
-    <t>Learned to communicate on slack or through messaging with teammates. They brought up a good point that our decision on the project will have consequences later on if it's not well-documented, making it more difficult for us to work on activities.</t>
+    <t>Learned to communicate on slack or through messaging with teammates. They brought up a good point that our decision on the project will have consequences later on if it's not well-documented, making it more difficult for us to work on activities. I agreed that this was true, so we chose Runelite as a strong system to work on.</t>
   </si>
   <si>
     <t>I felt comfortable with my teammates.</t>
@@ -119,9 +114,7 @@
     <t>1) Understanding JPacMan3 more intricately, including the EmptySprite object, constants MOVE_INTERVAL and INTERVAL_VARIATION, and files to change if we were to add fruits.</t>
   </si>
   <si>
-    <t>- The EmptySprite object is used for when the loop in an animation frame ends, and denotes a sprite with no width or height. 
-- MOVE_INTERVAL is used as a base constant and INTERVAL_VARIATION as the input to the random number generator to calculate the delay time in milliseconds for each move a Ghost makes.
-- Files that would need to be changed includes those that dealt with generating fruits on the board (LevelFactory.java and Level.java) and those that accesses the resources to get the sprites (PacManSprites.java)</t>
+    <t>Looking through the relevant files and classes wasn't too hard itself. I just felt like I had to understand everything that affected the piece of code I was looking at, and that made this process a bit more grueling. Also, working in class with jpacman made me more familiar of where I think the relevant code would be in the system.</t>
   </si>
   <si>
     <t>A bit stressed looking through the source code but the search feature of IntelliJ helped a lot. I entered in keywords I thought would be relevant. For fruits, I looked through factory classes to see how fruits would fit in.</t>
@@ -135,22 +128,11 @@
 3) Relating back to strategies learned in class</t>
   </si>
   <si>
-    <t xml:space="preserve">1) How to read code without ripping your hair out
-- Choosing a specific point of interest to narrow down focus on a topic and looking at what is actually relevant to that topic. After pinpointing a method to look at, learn more about that method see how it fits into the code by using tools or debuggers. Follow the trail and find the flow from the method to other classes and files it is associated with. Can use Github Search to search and filter results.
-2) 7 Ways to Imrove your Code Reading Skills
-- Run the code (learn the frameworks and libraries)
-- Find the high-level logic (start from an entry point like main and higher abstracted layers and work your way down)
--  Use/know tools (like IntelliJ, use search features and shortcuts)
-- Know the language/conventions (styles and syntax of different languages)
-- Read the best practices/design patterns (know design patterns and benefits/consequences of using those patterns)
-- Code review (work in a team or get input from other people about the code)
-- Temporary refactoring (break down long method into multiple pieces)
-3) How to Read Source Code
-- Reading isn't linear, glue is what connects things together and finding relationship between two interfaces. Interface-defining code are the boundaries of your module. Look at how errors handled/exposed. Under implementation, how does the code fit into larger picture? Process entailment is understanding how the code got there and where it can go. Algorithms are meat of program; look at what data structures are being used.  Configuration asks how many environments to configure. Tasking involves transactionality, resumeability, and sequentiality
-</t>
-  </si>
-  <si>
-    <t>The articles were interesting and provided more perspectives on how to read code. Something that I was found interesting and must remind myself to stress is hidden state machines because I used to get by with flags.  I felt like this activity helped tie together what we learned in class about reading code.</t>
+    <t>This provided me a lot more tools about how to read code.
+Something that I was found interesting and must remind myself to stress is hidden state machines because I used to get by with flags. I felt like this activity helped tie together what we learned in class about reading code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The articles were interesting and provided more perspectives on how to read code. </t>
   </si>
   <si>
     <t>I wanted to underestand what mental models were and what and how to use a UML diagram.</t>
@@ -160,8 +142,8 @@
 2) What UML diagrams are, its usages, and how they can help look at the architecture of the code, its relationships, and its flow</t>
   </si>
   <si>
-    <t>I learned that we use mental models as a way to represent how we perceive things to work in the real world. The importance of mental models is evident for users who act upon a system based on what they understand about past software they have used. Menal models also affect developers because they should also consider other developers' mental models when forming their software system. I learned that mental models have limitations as well. 
-In regards to UML diagrams, they are visualized with boxes as classes or interfaces, in which each box contains variables, getters, and setters. The lines portray the relationships of each class to one another.</t>
+    <t>I learned that we use mental models as a way to represent how we perceive things to work in the real world. I felt that learning about this is more important than people would think. Now I know that if I am to work with others, I should remember that we use different mental models, and this can be introspective in a way to help us collaborate on solving problems.
+More importantly, UML diagrams were extremely useful. The tool let me look at relationships within the system that I can't imagine on my own.</t>
   </si>
   <si>
     <t>The activity gave me more information on what people use to read and understand code, with mental models and UML diagrams being examples. The mood was enlightening.</t>
@@ -174,7 +156,8 @@
 2) Useful techniques to help externalize</t>
   </si>
   <si>
-    <t>I learned that one way to read code is to write out, in acronyms even, the constructors and/or methods of a class in a simplistic form to see what it roughly does. Strategies for working with legacy code include trying to create a mapping or a data model and to beware for and find bugs to fix. Try to communicate with any stakeholders but also future developers that will look at your code by providing better documentation or writing down the representation of the system. Keep a log, keep in mind business needs, and leave the code in better shape.</t>
+    <t>I learned that one way to read code is to write out, in acronyms even, the constructors and/or methods of a class in a simplistic form to see what it roughly does. I learned about other strategies for working with legacy code which include trying to create a mapping or a data model and to beware for and find bugs to fix. 
+It was very informative to know that we should always consider the stakeholders and try to externalize what we understand to them. I learned that I haven't been externalizing, and this is a good opportunity for me to do so so I can understand code more easily.</t>
   </si>
   <si>
     <t>The activity was okay. It elaborated more on last week's readings.</t>
@@ -211,7 +194,7 @@
 3) Completed the writeup</t>
   </si>
   <si>
-    <t>We had to use the UML diagram generated on IntelliJ first to help us find where the classes are before highlighting it on the printed diagram. The 2 features we chose were the ScreenMarker feature of the client which allowed players to mark on the screen boxes of a customizable color to help them mark the exact positions of things. The other feature was the metronome feature which was a supporting timing feature. We used the templates to write down where we've been in the code and where to go, and although it was very tedious, it helped us navigate through the files under the screenmarker and metronome plugin packages. We were able to understand more about what the code did which helped us write more detailed information on the writeup.</t>
+    <t>We had to use the UML diagram generated on IntelliJ first to help us find where the classes are before highlighting it on the printed diagram. We used the templates to write down where we've been in the code and where to go, and although it was very tedious, it helped us navigate through the files under the screenmarker and metronome plugin packages. We were able to understand more about what the code did which helped us write more detailed information on the writeup. Highlighting was almost impossible, we had to thoroughly look for it because the UML diagram was so big.</t>
   </si>
   <si>
     <t>Overall, the activity was a bit exhausting with the use of the templates, but I understand how it can be helpful, since we are thinking at every step, and making decisions on where to go from where we are.</t>
@@ -223,13 +206,13 @@
 Sequence Diagrams</t>
   </si>
   <si>
-    <t>1) Understood what features made up a UML diagram, including the class, fields, and methods and if it's an interface or abstract class. Other notation includes using arrows to show relationships (association, aggregation, etc.)
+    <t>1) Understood what features made up a UML diagram, and other notation includes using arrows to show relationships (association, aggregation, etc.)
 2) Key Expert Practices involves focusing on the essence of the code, going as deep in the code as needed, and working with others
-3) Call graphs are used to easily show the upstream calls to a method and all the downstream calls that that method makes to other methods.
-4) Sequence diagrams are used to help illustrate the potential execution of a program</t>
-  </si>
-  <si>
-    <t>I learned that UML diagrams are important to understanding how to externalize one's mental model and that there is a standard way to represent classes and their internal methods on the diagram. Relationships which are shown by using an arrow to point from class to class can be of different kinds, including the relationship being an association, an aggregation, a composition, an inheritance, a realization, or a dependency. Call graphs help us to pinpoint which methods call which and allows us to view the relationships instead of having to navigate manually through the code. Sequence diagrams show us what classes are involved in the current execution of the program, or from where we specify the starting point to be by running the sequence diagram on a chosen class. All of this helps us in better reading code.</t>
+3) Call graphs, upstream and downstream calls.
+4) Sequence diagrams to illustrate potential execution of a program</t>
+  </si>
+  <si>
+    <t>I learned that UML diagrams are important to understanding how to externalize one's mental model and that there is a standard way to represent classes and their internal methods on the diagram. I never really understood the possible associations and connections between classes, so learning about these relationships helped me understand more about UML diagrams, and I felt confident constructing one myself.</t>
   </si>
   <si>
     <t>I felt that the activity was helpful and was feeling satisfied because we now have more tools for disposal when it comes to reading code.</t>
@@ -243,7 +226,7 @@
 2) Able to have a clearer udnerstanding of what sequence diagrams are and what they can provide; their benefits, how to read them, and more</t>
   </si>
   <si>
-    <t>The articles helped explain how to read a UML diagram, and what it was made up of. Each box drawn represented a class, and displayed the attributes and operations of that class. More importantly, the relationships between classes were made clearer (association, aggregation, inheritance, composition, realization, and dependency). In regards to sequence diagrams, I learned more about how to read them, and that they were used to look through the timeline of operations and their calls to other operations.</t>
+    <t>The articles helped explain how to read a UML diagram, and what it was made up of. What was most helpful to me were the articles on call graphs and sequence diagrams because I felt that I still didn't really understand them after lecture.</t>
   </si>
   <si>
     <t xml:space="preserve">It was an interesting read and the load wasn't too bad. </t>
@@ -261,9 +244,7 @@
 3) Diagrams were provided, specifically Call graphs and Sequence Diagrams</t>
   </si>
   <si>
-    <t>I learned a lot more about the two features that my group chose, which was the PluginManager and the IdleNotifierPlugin. The PluginManager is important because it is the class that handles the addition, removal, and general management of all plugins. Since the Runelite client is a system that provides users with access to these plugins to aid them in gameplay, the PluginManager is the focal point to which existing plugins are managed and new plugins can be added.
-The IdleNotifierPlugin was also essential to the system because it is a crucial plugin that the user would want to use during gameplay. It notifies the user when certain actions or events during gameplay have become idle so that users can maximize time efficiency and know exactly when to execute their next action.
-The documentation provides explanations of how we found the files, our search through the files and through the important state variables and methods, and code snippets showing the exact code in which someone would want to look if they were to make a change. We focused on these main methods to print both the call graphs and the sequence diagrams. For the PluginManager, this occurred at startPlugins(), and for IdleNotifierPlugin, this occurred at the method onGameTicks().</t>
+    <t>I learned a lot more about the two features that my group chose. Finding essential features were very tough. The first one wasn't too hard, the PluginManager, because we knew that plugins were crucial to the system. The second one was really tough and we chose what we thought could be essential.</t>
   </si>
   <si>
     <t>The activity as a whole wasn't too exhausting. Since I learned how to look through and read code more quickly using IntelliJ, searching for relevant classes and files wasn't difficult. What was difficult was choosing which features were essential to the system, because this system's purpose is solely to provide plugins that users can use when they play Runescape. The entitrety of the plugins made up the system, with each plugin independent of each other and within their own packages. We decided to choose the PluginManager because that class handles all existing as well as new plugins and the IdleNotifierPlugin as a core plugin because it was essential the gameplay.</t>
@@ -279,7 +260,7 @@
 3) Learned to be skeptical of the code, of others, and of ourselves.</t>
   </si>
   <si>
-    <t>I learned that mental simulation was our way of imagining how the code works, and stepping through the code, thinking of the probably results without actually running the program. This was a way for us to tackle being skeptical of our code, since experts usually use print statements or debuggers to make sure that the value of something is actually that value. However, they simulate going through the code without running the program first. It is also helpful to draw diagrams and possible if-else situations, and stepping through it, simulating it. We have to ask ourselves what we are unsure of after every line of code.</t>
+    <t xml:space="preserve">I learned that mental simulation was our way of imagining how the code works, and stepping through the code, thinking of the probably results without actually running the program. It was helpful to be able to describe this process, because I have been doing this unconsciously when reading code, putting myself through how the code would run without really running it. </t>
   </si>
   <si>
     <t>The activity gave another interesting perspective on how we deal with reading code, especially one within a large system that we have to understand. Like the mental models lecture, I felt that this lecture was also very helpful.</t>
@@ -353,6 +334,50 @@
   </si>
   <si>
     <t>I was shocked in a good way. To learn more about the things outside of our project, the team, the state of it, and not just the code and the functionality of the system made me appreciate Runelite even more.</t>
+  </si>
+  <si>
+    <t>Learn more key expert practices, patterns, design patterns, and software design patterns</t>
+  </si>
+  <si>
+    <t>Learned 3 more expert practices: investing now to save effort later, socially embed and reinforce good practice, use analogy.
+Learned about patterns.
+Learned about strategy pattern with a concrete example using the duck pond simulator.</t>
+  </si>
+  <si>
+    <t>Learning about the strategy pattern was really useful. Andre presented us with a problem using the duck simulator and asked us how we would design and connect the classes if certain functionalities were to be added. I wasn't aware at first that the strategy pattern was ideal for the solution. It allowed new interfaces to be added, and new types of ducks could be configured by setting the correct interface.</t>
+  </si>
+  <si>
+    <t>Duck simulator was very interesting and informative. I was satisfied overall.</t>
+  </si>
+  <si>
+    <t>11:00pm-4:00am</t>
+  </si>
+  <si>
+    <t>Find 5 patterns used within Runelite, document them
+Document the first issue that we solved</t>
+  </si>
+  <si>
+    <t>We found 5 patterns used within Runelite: Factory, Facade, Observer, Iterator, and Singleton.
+We were able to submit a pull request and have our first contribution be successfully merged.</t>
+  </si>
+  <si>
+    <t>At first it was really hard to find patterns. I didn't even know where to start. I decided to read up about all the patterns listed on the lecture and start from there. I looked at common patterns that might be used in Runelite, and found that it used the observer pattern right from the start. Also, iterator pattern was very common and also existed within Runelite. So understanding what the patterns are and then finding common ones in Runelite helped me complete the assignment.</t>
+  </si>
+  <si>
+    <t>Felt a bit exhausted from learning all the patterns but it helped in the end. I felt satisfied after the assignment was complete.</t>
+  </si>
+  <si>
+    <t>Test Cases, key expert practices</t>
+  </si>
+  <si>
+    <t>Learned more key expert practices
+How to read code through the test cases that are provided, that we read, or that we write</t>
+  </si>
+  <si>
+    <t>This lecture brought together what we learned about testing in 261P to how we can read code through test cases. By using JPacman's test cases as an example, it was really helpful to see how unit tests were used, and how integrated system is used in the system. I felt that I learned more about parts of jpacman that I didn't know before, especially how the developers saw their system. Some of what they tested were useful, some were confusing and raised more questions.</t>
+  </si>
+  <si>
+    <t>Intriguing lecture and activity.</t>
   </si>
   <si>
     <t>&lt;what day?&gt;</t>
@@ -436,6 +461,11 @@
     </font>
     <font>
       <i/>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11.0"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -443,11 +473,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12.0"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
       <i/>
@@ -540,7 +565,10 @@
     <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -552,7 +580,10 @@
     <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -561,25 +592,19 @@
     <xf borderId="4" fillId="4" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="4" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="4" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,563 +916,559 @@
         <v>14</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="9">
         <v>43846.0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="20">
         <v>43848.0</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="21">
         <v>0.9166666666666666</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="18">
+      <c r="A9" s="20">
         <v>43849.0</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="21">
         <v>0.8333333333333334</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="20">
         <v>43849.0</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="21">
         <v>0.9166666666666666</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="18">
+      <c r="A11" s="20">
         <v>43853.0</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="20">
         <v>43857.0</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="21">
         <v>0.8541666666666666</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="18">
+      <c r="A13" s="20">
         <v>43859.0</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="20">
+      <c r="A14" s="23">
         <v>43859.0</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="18">
+      <c r="A15" s="20">
         <v>43860.0</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="20">
         <v>43865.0</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="21">
         <v>0.8333333333333334</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="18">
+      <c r="A17" s="20">
         <v>43866.0</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="23">
+      <c r="A18" s="9">
         <v>43867.0</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="23">
+      <c r="A19" s="9">
         <v>43874.0</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="23">
+      <c r="A20" s="9">
         <v>43880.0</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="23">
+      <c r="A21" s="9">
         <v>43881.0</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="23">
+      <c r="A22" s="9">
         <v>43885.0</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="9">
+        <v>43888.0</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="E23" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="F23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="G23" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="9">
+        <v>43894.0</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="C24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="E24" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="F24" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="A25" s="24">
+        <v>43895.0</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>95</v>
+      <c r="A26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+        <v>109</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
